--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="sorted_sheet" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69" count="69">
   <si>
     <t>MODEL</t>
   </si>
@@ -234,6 +235,9 @@
   </si>
   <si>
     <t>workorder4</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -276,7 +280,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,17 +297,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
         <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -376,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -477,42 +470,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="144">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2296,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -3397,7 +3438,9 @@
       <c r="AD19" s="11"/>
     </row>
     <row r="20" spans="1:30" s="12" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="34">
@@ -3843,7 +3886,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="37">
-        <f t="shared" ref="L28:L32" si="8">PRODUCT(D28, K28)</f>
+        <f t="shared" ref="L28:L33" si="8">PRODUCT(D28, K28)</f>
         <v>30</v>
       </c>
       <c r="M28" s="24"/>
@@ -3852,7 +3895,7 @@
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="31">
-        <v>43451</v>
+        <v>43482</v>
       </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="28"/>
@@ -3863,7 +3906,7 @@
       <c r="W28" s="24"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="39" t="str">
-        <f t="shared" ref="Y28:Y32" si="9">CONCATENATE(T28,".",U28,".",V28,W28,".",X28)</f>
+        <f t="shared" ref="Y28:Y33" si="9">CONCATENATE(T28,".",U28,".",V28,W28,".",X28)</f>
         <v>...</v>
       </c>
       <c r="Z28" s="24"/>
@@ -3904,7 +3947,7 @@
       </c>
       <c r="O29" s="28"/>
       <c r="P29" s="31">
-        <v>43451</v>
+        <v>43237</v>
       </c>
       <c r="Q29" s="28"/>
       <c r="R29" s="28"/>
@@ -3925,191 +3968,108 @@
       <c r="AD29" s="22"/>
     </row>
     <row r="30" spans="1:30" s="12" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A30" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B30" s="2">
-        <v>1055.26</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6</v>
-      </c>
-      <c r="D30" s="35">
-        <f>SUM(D28:D29)</f>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="40">
+        <v>30</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="42">
+        <v>10</v>
+      </c>
+      <c r="L30" s="37">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="M30" s="39"/>
+      <c r="N30" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="24" t="str">
-        <v>TOTAL #</v>
-      </c>
-      <c r="F30" s="25" t="str">
-        <v/>
-      </c>
-      <c r="G30" s="24" t="str">
-        <v>AVERAGE UNIT</v>
-      </c>
-      <c r="H30" s="26" t="str">
-        <v/>
-      </c>
-      <c r="I30" s="26" t="str">
-        <v/>
-      </c>
-      <c r="J30" s="26" t="str">
-        <v/>
-      </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="40">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="M30" s="24" t="str">
-        <v/>
-      </c>
-      <c r="N30" s="28" t="str">
-        <v>TOTAL EXTENDED</v>
-      </c>
-      <c r="O30" s="28" t="str">
-        <v/>
-      </c>
-      <c r="P30" s="31" t="str">
-        <v/>
-      </c>
-      <c r="Q30" s="28" t="str">
-        <v/>
-      </c>
-      <c r="R30" s="28" t="str">
-        <v/>
-      </c>
-      <c r="S30" s="24" t="str">
-        <v/>
-      </c>
-      <c r="T30" s="29" t="str">
-        <v/>
-      </c>
-      <c r="U30" s="24" t="str">
-        <v/>
-      </c>
-      <c r="V30" s="24" t="str">
-        <v/>
-      </c>
-      <c r="W30" s="24" t="str">
-        <v/>
-      </c>
-      <c r="X30" s="24" t="str">
-        <v/>
-      </c>
+      <c r="O30" s="43"/>
+      <c r="P30" s="44">
+        <v>43448</v>
+      </c>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
       <c r="Y30" s="39" t="str">
         <f t="shared" si="9"/>
         <v>...</v>
       </c>
-      <c r="Z30" s="24" t="str">
-        <v/>
-      </c>
-      <c r="AA30" s="24" t="str">
-        <v/>
-      </c>
-      <c r="AB30" s="28" t="str">
-        <v/>
-      </c>
-      <c r="AC30" s="32" t="str">
-        <v/>
-      </c>
-      <c r="AD30" s="22" t="str">
-        <v/>
-      </c>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="22"/>
     </row>
     <row r="31" spans="1:30" s="12" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A31" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B31" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C31" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D31" s="41" t="str">
-        <v/>
-      </c>
-      <c r="E31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="F31" s="43" t="str">
-        <v/>
-      </c>
-      <c r="G31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="H31" s="44" t="str">
-        <v/>
-      </c>
-      <c r="I31" s="44" t="str">
-        <v/>
-      </c>
-      <c r="J31" s="44" t="str">
-        <v/>
-      </c>
-      <c r="K31" s="45" t="str">
-        <v/>
-      </c>
-      <c r="L31" s="46" t="str">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="40">
+        <v>4</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="42">
+        <v>20</v>
+      </c>
+      <c r="L31" s="37">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="N31" s="47" t="str">
-        <v>MODEL</v>
-      </c>
-      <c r="O31" s="47" t="str">
-        <v/>
-      </c>
-      <c r="P31" s="48" t="str">
-        <v/>
-      </c>
-      <c r="Q31" s="47" t="str">
-        <v/>
-      </c>
-      <c r="R31" s="47" t="str">
-        <v/>
-      </c>
-      <c r="S31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="T31" s="49" t="str">
-        <v/>
-      </c>
-      <c r="U31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="V31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="W31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="X31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="Y31" s="42" t="str">
+        <v>80</v>
+      </c>
+      <c r="M31" s="39"/>
+      <c r="N31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="43"/>
+      <c r="P31" s="44">
+        <v>43439</v>
+      </c>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39" t="str">
         <f t="shared" si="9"/>
-        <v>SERIAL</v>
-      </c>
-      <c r="Z31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="AA31" s="42" t="str">
-        <v/>
-      </c>
-      <c r="AB31" s="47" t="str">
-        <v/>
-      </c>
-      <c r="AC31" s="50" t="str">
-        <v/>
-      </c>
-      <c r="AD31" s="22" t="str">
-        <v/>
-      </c>
+        <v>...</v>
+      </c>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="22"/>
     </row>
     <row r="32" spans="1:30" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="1"/>
@@ -4123,7 +4083,7 @@
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="40">
+      <c r="L32" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4149,7 +4109,7 @@
       <c r="AC32" s="32"/>
       <c r="AD32" s="22"/>
     </row>
-    <row r="33" spans="1:30" s="12" customFormat="1">
+    <row r="33" spans="1:30" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4161,7 +4121,10 @@
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="27"/>
-      <c r="L33" s="40"/>
+      <c r="L33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="M33" s="24"/>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
@@ -4174,7 +4137,10 @@
       <c r="V33" s="24"/>
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
-      <c r="Y33" s="39"/>
+      <c r="Y33" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>...</v>
+      </c>
       <c r="Z33" s="24"/>
       <c r="AA33" s="24"/>
       <c r="AB33" s="28"/>
@@ -4183,509 +4149,531 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P2">
-    <cfRule type="timePeriod" dxfId="137" priority="2" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="143" priority="20" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P2,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P2,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="136" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="142" priority="21" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P2,1)&lt;=6,FLOOR(P2,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="135" priority="4" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="141" priority="22" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P2,1)&lt;=6,FLOOR(P2,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="timePeriod" dxfId="134" priority="5" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="140" priority="23" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P2,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P2,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="133" priority="6" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="139" priority="24" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P2,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P2,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="132" priority="7" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="138" priority="25" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P2,1)&lt;=6,FLOOR(P2,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="timePeriod" dxfId="131" priority="8" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="137" priority="26" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P5,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P5,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="130" priority="9" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="136" priority="27" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P5,1)&lt;=6,FLOOR(P5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="129" priority="10" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="135" priority="28" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P5,1)&lt;=6,FLOOR(P5,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="timePeriod" dxfId="128" priority="11" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="134" priority="29" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P5,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P5,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="127" priority="12" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="133" priority="30" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P5,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P5,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="126" priority="13" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="132" priority="31" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P5,1)&lt;=6,FLOOR(P5,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="timePeriod" dxfId="125" priority="14" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="131" priority="32" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P4,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P4,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="124" priority="15" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="130" priority="33" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P4,1)&lt;=6,FLOOR(P4,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="123" priority="16" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="129" priority="34" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P4,1)&lt;=6,FLOOR(P4,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="timePeriod" dxfId="122" priority="17" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="128" priority="35" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P4,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P4,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="121" priority="18" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="127" priority="36" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P4,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P4,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="120" priority="19" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="126" priority="37" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P4,1)&lt;=6,FLOOR(P4,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="timePeriod" dxfId="119" priority="20" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="125" priority="38" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="118" priority="21" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="124" priority="39" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P3,1)&lt;=6,FLOOR(P3,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="117" priority="22" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="123" priority="40" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P3,1)&lt;=6,FLOOR(P3,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="timePeriod" dxfId="116" priority="23" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="122" priority="41" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="115" priority="24" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="121" priority="42" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="114" priority="25" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="120" priority="43" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P3,1)&lt;=6,FLOOR(P3,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="timePeriod" dxfId="113" priority="26" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="119" priority="44" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P7,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P7,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="112" priority="27" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="118" priority="45" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P7,1)&lt;=6,FLOOR(P7,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="111" priority="28" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="117" priority="46" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P7,1)&lt;=6,FLOOR(P7,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="timePeriod" dxfId="110" priority="29" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="116" priority="47" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P7,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P7,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="109" priority="30" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="115" priority="48" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P7,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P7,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="108" priority="31" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="114" priority="49" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P7,1)&lt;=6,FLOOR(P7,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="timePeriod" dxfId="107" priority="32" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="113" priority="50" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P6,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P6,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="106" priority="33" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="112" priority="51" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P6,1)&lt;=6,FLOOR(P6,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="105" priority="34" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="111" priority="52" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P6,1)&lt;=6,FLOOR(P6,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="timePeriod" dxfId="104" priority="35" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="110" priority="53" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P6,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P6,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="103" priority="36" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="109" priority="54" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P6,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P6,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="102" priority="37" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="108" priority="55" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P6,1)&lt;=6,FLOOR(P6,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="timePeriod" dxfId="101" priority="38" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="107" priority="56" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P8,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P8,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="100" priority="39" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="106" priority="57" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P8,1)&lt;=6,FLOOR(P8,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="99" priority="40" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="105" priority="58" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P8,1)&lt;=6,FLOOR(P8,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="timePeriod" dxfId="98" priority="41" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="104" priority="59" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P8,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P8,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="97" priority="42" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="103" priority="60" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P8,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P8,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="96" priority="43" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="102" priority="61" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P8,1)&lt;=6,FLOOR(P8,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="timePeriod" dxfId="95" priority="44" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="101" priority="62" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P10,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P10,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="94" priority="45" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="100" priority="63" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P10,1)&lt;=6,FLOOR(P10,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="93" priority="46" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="99" priority="64" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P10,1)&lt;=6,FLOOR(P10,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="timePeriod" dxfId="92" priority="47" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="98" priority="65" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P10,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P10,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="91" priority="48" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="97" priority="66" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P10,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P10,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="90" priority="49" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="96" priority="67" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P10,1)&lt;=6,FLOOR(P10,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="timePeriod" dxfId="89" priority="50" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="95" priority="68" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P9,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P9,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="88" priority="51" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="94" priority="69" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P9,1)&lt;=6,FLOOR(P9,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="87" priority="52" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="93" priority="70" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P9,1)&lt;=6,FLOOR(P9,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="timePeriod" dxfId="86" priority="53" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="92" priority="71" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P9,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P9,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="85" priority="54" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="91" priority="72" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P9,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P9,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="84" priority="55" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="90" priority="73" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P9,1)&lt;=6,FLOOR(P9,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="timePeriod" dxfId="83" priority="56" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="89" priority="74" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P12,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P12,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="82" priority="57" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="88" priority="75" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P12,1)&lt;=6,FLOOR(P12,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="81" priority="58" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="87" priority="76" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P12,1)&lt;=6,FLOOR(P12,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="timePeriod" dxfId="80" priority="59" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="86" priority="77" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P12,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P12,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="79" priority="60" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="85" priority="78" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P12,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P12,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="78" priority="61" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="84" priority="79" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P12,1)&lt;=6,FLOOR(P12,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="timePeriod" dxfId="77" priority="62" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="83" priority="80" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P11,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P11,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="76" priority="63" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="82" priority="81" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P11,1)&lt;=6,FLOOR(P11,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="75" priority="64" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="81" priority="82" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P11,1)&lt;=6,FLOOR(P11,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="timePeriod" dxfId="74" priority="65" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="80" priority="83" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P11,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P11,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="73" priority="66" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="79" priority="84" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P11,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P11,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="72" priority="67" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="78" priority="85" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P11,1)&lt;=6,FLOOR(P11,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="timePeriod" dxfId="71" priority="68" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="77" priority="86" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P24,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P24,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="70" priority="69" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="76" priority="87" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P24,1)&lt;=6,FLOOR(P24,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="69" priority="70" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="75" priority="88" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P24,1)&lt;=6,FLOOR(P24,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="timePeriod" dxfId="68" priority="71" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="74" priority="89" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P24,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P24,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="67" priority="72" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="73" priority="90" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P24,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P24,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="66" priority="73" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="72" priority="91" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P24,1)&lt;=6,FLOOR(P24,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="timePeriod" dxfId="65" priority="74" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="71" priority="92" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P16,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P16,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="64" priority="75" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="70" priority="93" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P16,1)&lt;=6,FLOOR(P16,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="63" priority="76" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="69" priority="94" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P16,1)&lt;=6,FLOOR(P16,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="timePeriod" dxfId="62" priority="77" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="68" priority="95" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P16,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P16,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="61" priority="78" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="67" priority="96" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P16,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P16,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="60" priority="79" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="66" priority="97" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P16,1)&lt;=6,FLOOR(P16,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="timePeriod" dxfId="59" priority="80" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="65" priority="98" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P13,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P13,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="58" priority="81" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="64" priority="99" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P13,1)&lt;=6,FLOOR(P13,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="57" priority="82" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="63" priority="100" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P13,1)&lt;=6,FLOOR(P13,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="timePeriod" dxfId="56" priority="83" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="62" priority="101" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P13,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P13,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="55" priority="84" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="61" priority="102" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P13,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P13,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="54" priority="85" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="60" priority="103" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P13,1)&lt;=6,FLOOR(P13,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="timePeriod" dxfId="53" priority="86" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="59" priority="104" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P17,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P17,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="52" priority="87" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="58" priority="105" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P17,1)&lt;=6,FLOOR(P17,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="51" priority="88" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="57" priority="106" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P17,1)&lt;=6,FLOOR(P17,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="timePeriod" dxfId="50" priority="89" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="56" priority="107" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P17,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P17,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="49" priority="90" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="55" priority="108" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P17,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P17,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="48" priority="91" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="54" priority="109" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P17,1)&lt;=6,FLOOR(P17,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="timePeriod" dxfId="47" priority="92" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="53" priority="110" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P20,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P20,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="46" priority="93" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="52" priority="111" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P20,1)&lt;=6,FLOOR(P20,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="45" priority="94" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="51" priority="112" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P20,1)&lt;=6,FLOOR(P20,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="timePeriod" dxfId="44" priority="95" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="50" priority="113" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P20,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P20,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="43" priority="96" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="49" priority="114" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P20,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P20,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="42" priority="97" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="48" priority="115" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P20,1)&lt;=6,FLOOR(P20,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="timePeriod" dxfId="41" priority="98" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="47" priority="116" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P23,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P23,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="40" priority="99" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="46" priority="117" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P23,1)&lt;=6,FLOOR(P23,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="39" priority="100" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="45" priority="118" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P23,1)&lt;=6,FLOOR(P23,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="timePeriod" dxfId="38" priority="101" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="44" priority="119" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P23,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P23,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="37" priority="102" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="43" priority="120" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P23,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P23,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="36" priority="103" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="42" priority="121" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P23,1)&lt;=6,FLOOR(P23,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="timePeriod" dxfId="35" priority="104" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="41" priority="122" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P25,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P25,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="34" priority="105" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="40" priority="123" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P25,1)&lt;=6,FLOOR(P25,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="33" priority="106" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="39" priority="124" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P25,1)&lt;=6,FLOOR(P25,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="timePeriod" dxfId="32" priority="107" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="38" priority="125" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P25,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P25,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="31" priority="108" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="37" priority="126" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P25,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P25,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="30" priority="109" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="36" priority="127" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P25,1)&lt;=6,FLOOR(P25,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P29">
+    <cfRule type="timePeriod" dxfId="35" priority="134" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(P29,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P29,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="34" priority="135" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P29,1)&lt;=6,FLOOR(P29,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="33" priority="136" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P29,1)&lt;=6,FLOOR(P29,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29">
+    <cfRule type="timePeriod" dxfId="32" priority="137" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(P29,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P29,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="31" priority="138" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(P29,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P29,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="30" priority="139" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P29,1)&lt;=6,FLOOR(P29,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="timePeriod" dxfId="29" priority="140" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(P28,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P28,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="28" priority="141" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P28,1)&lt;=6,FLOOR(P28,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="27" priority="142" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P28,1)&lt;=6,FLOOR(P28,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="timePeriod" dxfId="26" priority="143" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(P28,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P28,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="25" priority="144" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(P28,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P28,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="24" priority="145" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P28,1)&lt;=6,FLOOR(P28,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="timePeriod" dxfId="23" priority="146" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(P33,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P33,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="22" priority="147" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P33,1)&lt;=6,FLOOR(P33,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="21" priority="148" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P33,1)&lt;=6,FLOOR(P33,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="timePeriod" dxfId="20" priority="149" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(P33,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P33,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="19" priority="150" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(P33,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P33,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="18" priority="151" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P33,1)&lt;=6,FLOOR(P33,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="timePeriod" dxfId="29" priority="110" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="17" priority="7" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P30,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P30,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="28" priority="111" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="16" priority="8" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P30,1)&lt;=6,FLOOR(P30,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="27" priority="112" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="15" priority="9" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P30,1)&lt;=6,FLOOR(P30,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="timePeriod" dxfId="26" priority="113" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="14" priority="10" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P30,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P30,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="25" priority="114" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="13" priority="11" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P30,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P30,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="24" priority="115" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="12" priority="12" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P30,1)&lt;=6,FLOOR(P30,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29">
-    <cfRule type="timePeriod" dxfId="23" priority="116" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(P29,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P29,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="22" priority="117" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P29,1)&lt;=6,FLOOR(P29,1)&lt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="21" priority="118" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P29,1)&lt;=6,FLOOR(P29,1)&lt;=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P29">
-    <cfRule type="timePeriod" dxfId="20" priority="119" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(P29,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P29,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="19" priority="120" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(P29,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P29,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="18" priority="121" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P29,1)&lt;=6,FLOOR(P29,1)&lt;=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
-    <cfRule type="timePeriod" dxfId="17" priority="122" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(P28,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P28,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="16" priority="123" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P28,1)&lt;=6,FLOOR(P28,1)&lt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="15" priority="124" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P28,1)&lt;=6,FLOOR(P28,1)&lt;=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
-    <cfRule type="timePeriod" dxfId="14" priority="125" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(P28,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P28,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="13" priority="126" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(P28,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P28,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="12" priority="127" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P28,1)&lt;=6,FLOOR(P28,1)&lt;=TODAY())</formula>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="timePeriod" dxfId="11" priority="13" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(P31,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P31,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="10" priority="14" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P31,1)&lt;=6,FLOOR(P31,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="9" priority="15" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P31,1)&lt;=6,FLOOR(P31,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="timePeriod" dxfId="8" priority="16" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(P31,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P31,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="7" priority="17" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(P31,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P31,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="6" priority="18" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(P31,1)&lt;=6,FLOOR(P31,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="timePeriod" dxfId="11" priority="128" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="5" priority="1" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P32,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P32,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="10" priority="129" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="4" priority="2" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P32,1)&lt;=6,FLOOR(P32,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="9" priority="130" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P32,1)&lt;=6,FLOOR(P32,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="timePeriod" dxfId="8" priority="131" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(P32,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P32,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="7" priority="132" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="1" priority="5" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(P32,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P32,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="6" priority="133" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="0" priority="6" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(P32,1)&lt;=6,FLOOR(P32,1)&lt;=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31">
-    <cfRule type="timePeriod" dxfId="5" priority="134" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(P31,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P31,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="4" priority="135" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P31,1)&lt;=6,FLOOR(P31,1)&lt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="3" priority="136" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P31,1)&lt;=6,FLOOR(P31,1)&lt;=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31">
-    <cfRule type="timePeriod" dxfId="2" priority="137" timePeriod="thisWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(P31,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(P31,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="138" timePeriod="nextWeek">
-      <formula>AND(ROUNDDOWN(P31,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(P31,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="0" priority="139" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(P31,1)&lt;=6,FLOOR(P31,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -4695,4 +4683,10 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
 </file>